--- a/análisis Ambiental/presupuesto amb.xlsx
+++ b/análisis Ambiental/presupuesto amb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMP-AMB-GORE\ESPIRULINA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IA-CULMINADOS-NELA\IMP.AMBIENTAL-ESPIRULINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="MA-comp" sheetId="2" r:id="rId1"/>
     <sheet name="ppto" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
   <si>
     <t>Descripción</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Glb</t>
   </si>
   <si>
-    <t>Se realizará las mediciones conforme la estrategia del Manejo Ambiental ,se reralizarán al inicio y al finalizar la ejecución del proyecto en el área de la construcción.</t>
-  </si>
-  <si>
     <t>Monitoreo de la  calidad de aire  (02 puntos)</t>
   </si>
   <si>
@@ -427,6 +424,18 @@
   </si>
   <si>
     <t>realizarán capacitaciones en primeros auxiliosy simulacros en temas de inuncación sismo e insendio</t>
+  </si>
+  <si>
+    <t>Se realizará las mediciones conforme la estrategia del Manejo Ambiental ,se reralizarán al inicio y al finalizar la ejecución del proyecto en el área de la construcción de la planta procesadora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTO TOTAL  (S/) </t>
+  </si>
+  <si>
+    <t>elavoración  de la  EVAP y pago de los tramites correspondientes</t>
   </si>
 </sst>
 </file>
@@ -625,7 +634,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,8 +683,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -781,36 +796,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1049,12 +1038,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1072,17 +1151,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1110,16 +1184,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1132,12 +1203,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1163,22 +1229,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1272,16 +1338,16 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1300,49 +1366,121 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1351,7 +1489,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1360,16 +1498,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,10 +1531,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,10 +1546,10 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1689,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K32"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,378 +1856,382 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="101" t="s">
+      <c r="E4" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="123" t="s">
+      <c r="G4" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="124"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="117" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="12" t="s">
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="96" t="s">
         <v>16</v>
       </c>
+      <c r="I5" s="118"/>
       <c r="K5" s="2">
         <f>+G6+G8+G9+G10</f>
-        <v>7050</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="122">
         <v>1</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="116" t="s">
+      <c r="D6" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="113">
+      <c r="F6" s="136">
         <v>2</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="132">
         <v>1600</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="134">
         <f>+G6*2*F6</f>
         <v>6400</v>
       </c>
-      <c r="I6" s="105">
+      <c r="I6" s="125">
         <f>+H6+H8+H9+H10</f>
-        <v>28200</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="106"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="22" t="s">
+      <c r="A8" s="122"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="138"/>
+      <c r="E8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="23">
         <v>4500</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="16">
         <f>+G8*2*F8</f>
         <v>18000</v>
       </c>
-      <c r="I8" s="106"/>
+      <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="22" t="s">
+      <c r="A9" s="122"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="138"/>
+      <c r="E9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <v>2</v>
       </c>
-      <c r="G9" s="27">
-        <v>350</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="G9" s="23">
+        <v>450</v>
+      </c>
+      <c r="H9" s="16">
         <f>+G9*2*F9</f>
-        <v>1400</v>
-      </c>
-      <c r="I9" s="106"/>
+        <v>1800</v>
+      </c>
+      <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="99"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="122"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="138"/>
+      <c r="E10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="23">
         <v>600</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="16">
         <f>+G10*2*F10</f>
         <v>2400</v>
       </c>
-      <c r="I10" s="107"/>
+      <c r="I10" s="127"/>
     </row>
     <row r="11" spans="1:11" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="5">
         <v>7</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="24">
         <v>1500</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="26">
         <f t="shared" ref="H11:H24" si="0">+G11*F11</f>
         <v>10500</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="129">
         <f>+H12+H11</f>
         <v>22400</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="128"/>
-      <c r="C12" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="B12" s="155"/>
+      <c r="C12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="F12" s="5">
         <v>14</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="24">
         <v>850</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="26">
         <f>+G12*F12</f>
         <v>11900</v>
       </c>
-      <c r="I12" s="100"/>
+      <c r="I12" s="125"/>
     </row>
     <row r="13" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99">
+      <c r="A13" s="122">
         <v>3</v>
       </c>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="4">
         <v>185</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="25">
         <v>50</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="26">
         <f t="shared" si="0"/>
         <v>9250</v>
       </c>
-      <c r="I13" s="100">
+      <c r="I13" s="125">
         <f>SUM(H13:H18)</f>
         <v>120367.00000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="122"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="F14" s="4">
         <v>365</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="25">
         <v>15</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="26">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="I14" s="106"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="122"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="4">
         <v>360</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="25">
         <v>257.70000000000005</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="26">
         <f t="shared" si="0"/>
         <v>92772.000000000015</v>
       </c>
-      <c r="I15" s="106"/>
+      <c r="I15" s="126"/>
     </row>
     <row r="16" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="99"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="122"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="4">
         <v>21</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="25">
         <v>300</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="26">
         <f t="shared" si="0"/>
         <v>6300</v>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:11" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="21" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="4">
         <v>21</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="25">
         <v>50</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="26">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I17" s="106"/>
+      <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="A18" s="122"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="4">
         <v>1840</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="25">
         <v>3</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="26">
         <f t="shared" si="0"/>
         <v>5520</v>
       </c>
-      <c r="I18" s="106"/>
+      <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:11" ht="93" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>68</v>
+      <c r="D19" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>42</v>
@@ -2085,178 +2239,178 @@
       <c r="F19" s="5">
         <v>7</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="66">
         <v>1912.7</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="26">
         <f t="shared" si="0"/>
         <v>13388.9</v>
       </c>
-      <c r="I19" s="100">
+      <c r="I19" s="125">
         <f>+H19+H20</f>
         <v>17938.900000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="B20" s="128"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="155"/>
+      <c r="C20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="F20" s="5">
         <v>7</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="66">
         <v>650</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="26">
         <f t="shared" si="0"/>
         <v>4550</v>
       </c>
-      <c r="I20" s="109"/>
+      <c r="I20" s="130"/>
     </row>
     <row r="21" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="99">
+      <c r="A21" s="122">
         <v>5</v>
       </c>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="5">
         <v>18</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="23">
         <v>1050</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="26">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="I21" s="108">
+      <c r="I21" s="128">
         <f>SUM(H21:H24)</f>
         <v>46530</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="10" t="s">
+      <c r="A22" s="122"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="5">
         <v>7</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="23">
         <v>490</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="26">
         <f t="shared" si="0"/>
         <v>3430</v>
       </c>
-      <c r="I22" s="100"/>
+      <c r="I22" s="125"/>
     </row>
     <row r="23" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A23" s="99"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="10" t="s">
-        <v>89</v>
+      <c r="A23" s="122"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="5">
         <v>28</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="23">
         <v>150</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="26">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="K23" s="25"/>
+      <c r="I23" s="125"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="11" t="s">
+      <c r="A24" s="122"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="5">
         <v>8</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="23">
         <v>2500</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="26">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="I24" s="100"/>
+      <c r="I24" s="125"/>
     </row>
     <row r="25" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>6</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="D25" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="100">
         <v>1</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="101">
         <v>9500</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="102">
         <f t="shared" ref="H25:H28" si="1">+G25*F25</f>
         <v>9500</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="27">
         <f>+H25</f>
         <v>9500</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="99">
+      <c r="A26" s="123">
         <v>8</v>
       </c>
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -2265,25 +2419,25 @@
       <c r="F26" s="5">
         <v>7</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="92">
         <v>300</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="103">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="I26" s="100">
+      <c r="I26" s="124">
         <f>+H26+H27+H28</f>
         <v>11622.75</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="A27" s="123"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -2292,94 +2446,113 @@
       <c r="F27" s="5">
         <v>226.91</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="92">
         <v>25</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="103">
         <f t="shared" si="1"/>
         <v>5672.75</v>
       </c>
-      <c r="I27" s="100"/>
+      <c r="I27" s="124"/>
     </row>
     <row r="28" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="21" t="s">
+      <c r="A28" s="123"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="5">
         <v>7</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="92">
         <v>550</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="103">
         <f t="shared" si="1"/>
         <v>3850</v>
       </c>
-      <c r="I28" s="100"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
-      <c r="C30" s="120" t="s">
+      <c r="I28" s="124"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="94"/>
+      <c r="C30" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="105">
+        <f>SUM(H6:H29)</f>
+        <v>256958.65</v>
+      </c>
+      <c r="I30" s="106">
+        <f>SUM(I6:I29)</f>
+        <v>256958.65</v>
+      </c>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="146" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="107"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="109"/>
+      <c r="C32" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="120"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110">
+        <v>65000</v>
+      </c>
+      <c r="I32" s="104"/>
+    </row>
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="111"/>
+      <c r="C33" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="31">
-        <f>SUM(H6:H29)</f>
-        <v>256558.65</v>
-      </c>
-      <c r="I30" s="34">
-        <f>SUM(I6:I29)</f>
-        <v>256558.65</v>
-      </c>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>85000</v>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="108">
+        <f>+I30+H32</f>
+        <v>321958.65000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B26:B28"/>
+  <mergeCells count="35">
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C23"/>
@@ -2394,729 +2567,741 @@
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="I26:I28"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="I13:I18"/>
     <mergeCell ref="I21:I24"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M58"/>
+  <dimension ref="A3:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="44.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="68" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="68" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="68" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="61" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="61" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E5" s="74"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63">
+    <row r="7" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="56">
         <v>1</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-    </row>
-    <row r="8" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
+    </row>
+    <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73">
         <f>+F9+F10+F11+F12</f>
         <v>28200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="41" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:6" s="34" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="36">
         <v>2</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="74">
         <v>1600</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="75">
         <f t="shared" ref="F9:F12" si="0">+E9*2*D9</f>
         <v>6400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="36">
         <v>2</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="74">
         <v>4500</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="75">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="43" t="s">
+    <row r="11" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="36">
         <v>2</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="74">
         <v>350</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="75">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="36">
         <v>2</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="74">
         <v>600</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="75">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64">
+    <row r="13" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="57">
         <v>1.2</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="80">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="73">
         <f>+F14+F15</f>
         <v>22400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+    <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="43">
+      <c r="B14" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="36">
         <v>7</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="74">
         <v>1500</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="75">
         <f>+E14*D14</f>
         <v>10500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+    <row r="15" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="43">
+      <c r="B15" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="36">
         <v>14</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="74">
         <v>850</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="75">
         <f>+E15*D15</f>
         <v>11900</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66">
+    <row r="16" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59">
         <v>1.3</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="80">
+      <c r="B16" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="73">
         <f>+F17+F18+F19+F20+F21+F22</f>
         <v>120367.00000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="43" t="s">
+    <row r="17" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="36">
         <v>185</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="74">
         <v>50</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="75">
         <f>+E17*D17</f>
         <v>9250</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="59" t="s">
+    <row r="18" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="43">
+      <c r="C18" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="36">
         <v>365</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="74">
         <v>15</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="75">
         <f t="shared" ref="F18:F22" si="1">+E18*D18</f>
         <v>5475</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="59" t="s">
+    <row r="19" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="43">
+      <c r="C19" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="36">
         <v>360</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="74">
         <v>257.70000000000005</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="75">
         <f t="shared" si="1"/>
         <v>92772.000000000015</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="34">
         <f>+E27/18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="59" t="s">
+    <row r="20" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="43">
+      <c r="C20" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="36">
         <v>21</v>
       </c>
-      <c r="E20" s="81">
+      <c r="E20" s="74">
         <v>300</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="75">
         <f t="shared" si="1"/>
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="43" t="s">
+    <row r="21" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="36">
         <v>21</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="74">
         <v>50</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="75">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="43" t="s">
+    <row r="22" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="36">
         <v>1840</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="74">
         <v>3</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="75">
         <f t="shared" si="1"/>
         <v>5520</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64">
+    <row r="23" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="57">
         <v>1.4</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="80">
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="73">
         <f>+F24+F25</f>
         <v>17938.900000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
+    <row r="24" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="36">
         <v>7</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="74">
         <v>1912.7</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="75">
         <f>+E24*D24</f>
         <v>13388.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="59" t="s">
+    <row r="25" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="43">
+      <c r="D25" s="36">
         <v>7</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25" s="74">
         <v>650</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="75">
         <f>+E25*D25</f>
         <v>4550</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64">
+    <row r="26" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57">
         <v>1.5</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="80">
+      <c r="B26" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="73">
         <f>+F27+F31</f>
         <v>46530</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82">
+    <row r="27" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75">
         <f>+F28+F29+F30</f>
         <v>26530</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="60" t="s">
         <v>110</v>
       </c>
+      <c r="B28" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="5">
         <v>18</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="24">
         <v>1050</v>
       </c>
-      <c r="F28" s="85">
+      <c r="F28" s="78">
         <f t="shared" ref="F28:F30" si="2">+E28*D28</f>
         <v>18900</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>123</v>
+      <c r="A29" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="5">
         <v>7</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="24">
         <v>490</v>
       </c>
-      <c r="F29" s="85">
+      <c r="F29" s="78">
         <f t="shared" si="2"/>
         <v>3430</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>124</v>
+      <c r="A30" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>123</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="5">
         <v>28</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="24">
         <v>150</v>
       </c>
-      <c r="F30" s="85">
+      <c r="F30" s="78">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="41" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="59" t="s">
+    <row r="31" spans="1:9" s="34" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75">
         <f>+F32</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="40" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47" t="s">
+    <row r="32" spans="1:9" s="33" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="60" t="s">
-        <v>118</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="4">
         <v>8</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="25">
         <v>2500</v>
       </c>
-      <c r="F32" s="85">
+      <c r="F32" s="78">
         <f>+E32*D32</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64">
+    <row r="33" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="57">
         <v>1.6</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="80">
+      <c r="B33" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="73">
         <f>+F34</f>
         <v>9500</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="42" t="s">
+    <row r="34" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="43">
+      <c r="C34" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="36">
         <v>1</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="37">
         <v>9500</v>
       </c>
-      <c r="F34" s="82">
+      <c r="F34" s="75">
         <f>+E34*D34</f>
         <v>9500</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-    </row>
-    <row r="35" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64">
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+    </row>
+    <row r="35" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="57">
         <v>1.8</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="80">
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="73">
         <f>+F36+F37+F38</f>
         <v>11622.75</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="43" t="s">
+    <row r="36" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="36">
         <v>7</v>
       </c>
-      <c r="E36" s="81">
+      <c r="E36" s="74">
         <v>300</v>
       </c>
-      <c r="F36" s="82">
+      <c r="F36" s="75">
         <f>+E36*D36</f>
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="43" t="s">
+    <row r="37" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="36">
         <v>226.91</v>
       </c>
-      <c r="E37" s="81">
+      <c r="E37" s="74">
         <v>25</v>
       </c>
-      <c r="F37" s="82">
+      <c r="F37" s="75">
         <f t="shared" ref="F37:F38" si="3">+E37*D37</f>
         <v>5672.75</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="43">
+    <row r="38" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="36">
         <v>7</v>
       </c>
-      <c r="E38" s="81">
+      <c r="E38" s="74">
         <v>550</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="75">
         <f t="shared" si="3"/>
         <v>3850</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="92"/>
-      <c r="B39" s="93" t="s">
+      <c r="A39" s="85"/>
+      <c r="B39" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="130">
+      <c r="C39" s="157">
         <f>+F8+F13+F16+F23+F26+F33+F35</f>
         <v>256558.65</v>
       </c>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
-    </row>
-    <row r="40" spans="1:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
-      <c r="B40" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="95" t="s">
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="159"/>
+    </row>
+    <row r="40" spans="1:13" s="90" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="95">
+      <c r="D40" s="88">
         <v>1</v>
       </c>
-      <c r="E40" s="98">
+      <c r="E40" s="91">
         <v>65000</v>
       </c>
-      <c r="F40" s="96">
+      <c r="F40" s="89">
         <f>+E40*D40</f>
         <v>65000</v>
       </c>
@@ -3125,10 +3310,10 @@
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="86">
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="79">
         <f>+C39*0.08</f>
         <v>20524.691999999999</v>
       </c>
@@ -3137,22 +3322,22 @@
       <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="86">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="79">
         <f>+C39*0.08</f>
         <v>20524.691999999999</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="91">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="84">
         <f>+C39+F40+F41+F42</f>
         <v>362608.03399999999</v>
       </c>
@@ -3161,34 +3346,34 @@
       <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="86">
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="79">
         <f>+F43*0.18</f>
         <v>65269.446119999993</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="86">
+        <v>86</v>
+      </c>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="79">
         <f>+F43+F44</f>
         <v>427877.48011999996</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="86">
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="79">
         <f>+F45*0.03</f>
         <v>12836.324403599998</v>
       </c>
@@ -3197,118 +3382,129 @@
       <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="86">
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="79">
         <f>+F45+F46</f>
         <v>440713.80452359997</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="87" t="s">
-        <v>119</v>
+      <c r="C50" s="80" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="52">
+      <c r="A51" s="45">
         <v>1</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="88">
+      <c r="C51" s="81">
         <f>+F8</f>
         <v>28200</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="48">
+      <c r="A52" s="41">
         <v>2</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="89">
+      <c r="C52" s="82">
         <f>+F13</f>
         <v>22400</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="48">
+      <c r="A53" s="41">
         <v>3</v>
       </c>
-      <c r="B53" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="89">
+      <c r="B53" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="82">
         <f>+F16</f>
         <v>120367.00000000001</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="48">
+      <c r="A54" s="41">
         <v>4</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="89">
+      <c r="C54" s="82">
         <f>+F23</f>
         <v>17938.900000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="48">
+      <c r="A55" s="41">
         <v>5</v>
       </c>
-      <c r="B55" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="89">
+      <c r="B55" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="82">
         <f>+F26</f>
         <v>46530</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="48">
+      <c r="A56" s="41">
         <v>6</v>
       </c>
-      <c r="B56" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="89">
+      <c r="B56" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="82">
         <f>+F33</f>
         <v>9500</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="48">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="41">
         <v>7</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="89">
+      <c r="C57" s="82">
         <f>+F35</f>
         <v>11622.75</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="50"/>
-      <c r="B58" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="90">
-        <f>SUM(C51:C57)</f>
-        <v>256558.65</v>
+      <c r="A58" s="112">
+        <v>8</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="114">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="43"/>
+      <c r="B59" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="83">
+        <f>SUM(C51:C58)</f>
+        <v>321558.65000000002</v>
       </c>
     </row>
   </sheetData>
